--- a/biology/Botanique/Athyrium/Athyrium.xlsx
+++ b/biology/Botanique/Athyrium/Athyrium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Athyrium regroupe quelques espèces de fougères.
 Ce genre de fougères peut être classé parmi la famille des Woodsiaceae selon certains auteurs.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique Athyrium vient du grec thurion [petite porte] évoquant l'insertion de l'indusie sur la feuille chez la fougère femelle. Lors de la maturation, les indusies se relèvent sur un côté (à la manière d'une porte)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Athyrium vient du grec thurion [petite porte] évoquant l'insertion de l'indusie sur la feuille chez la fougère femelle. Lors de la maturation, les indusies se relèvent sur un côté (à la manière d'une porte).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Athyrium americanum (Butters) Maxon
 Athyrium distentifolium Tausch ex Opiz
@@ -580,14 +596,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 mai 2013)[2] et ITIS      (20 mai 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 mai 2013) et ITIS      (20 mai 2013) :
 Athyrium alpestre (Hoppe) Milde - syn. Athyrium distentifolium, l'athyrium des Alpes
 Athyrium filix-femina (L.) Roth - la fougère femelle ou athyrium fougère-femelle
 Athyrium microphyllum (J. Sm.) Alston
 Athyrium niponicum (Mett.) Hance
-Selon NCBI  (20 mai 2013)[4] :
+Selon NCBI  (20 mai 2013) :
 Athyrium arisanense
 Athyrium atkinsonii
 Athyrium biserrulatum
@@ -648,7 +666,7 @@
 Athyrium × tokashikii
 Athyrium yokoscense
 Athyrium yui
-Selon Tropicos                                           (20 mai 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 Athyrium accedens (Blume) Milde
 Athyrium achilleifolium (M. Martens &amp; Galeotti) Fée
 Athyrium acrocarpum W.M. Chu
